--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Thai Sản</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Việc Riêng</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Hiếu Hỉ</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Phép Năm</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Thai Sản</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Việc Riêng</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>622204064</v>
+        <v>621605001</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -527,22 +527,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HẢI</t>
+          <t>DŨNG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LÊ VIẾT</t>
+          <t>TRƯƠNG VĂN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>08/01/2016</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NV PT Phần Mềm BP CNTT</t>
+          <t>TN Quản Trị Mạng BP CNTT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>622210012</v>
+        <v>622204064</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -573,17 +573,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SƠN</t>
+          <t>HẢI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NGÔ QUỐC</t>
+          <t>LÊ VIẾT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -596,26 +596,168 @@
           <t>CNTT</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>40</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
       <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>622210012</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SƠN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NGÔ QUỐC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>08/01/2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NV PT Phần Mềm BP CNTT</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CNTT</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>621805013</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NGHĨA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ĐOÀN TRỌNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>05/18/2018</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NV Hành chính BP HCNS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HCNS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>621412001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ý</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PHAN NHƯ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12/15/2014</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NV CS Tiền lương BP HCNS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HCNS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -14,15 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>rCode</t>
-  </si>
-  <si>
-    <t>rMsg</t>
-  </si>
-  <si>
-    <t>Không có đơn nghỉ phép</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DeptID</t>
+  </si>
+  <si>
+    <t>JobPositionName</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>Việc Riêng</t>
+  </si>
+  <si>
+    <t>Phép Năm</t>
+  </si>
+  <si>
+    <t>Bệnh Ốm</t>
+  </si>
+  <si>
+    <t>Thai Sản</t>
+  </si>
+  <si>
+    <t>Tai Nạn</t>
+  </si>
+  <si>
+    <t>Chờ Việc</t>
+  </si>
+  <si>
+    <t>Hiếu Hỉ</t>
+  </si>
+  <si>
+    <t>TRANG</t>
+  </si>
+  <si>
+    <t>DUYÊN</t>
+  </si>
+  <si>
+    <t>NHÂN</t>
+  </si>
+  <si>
+    <t>TRIỀU</t>
+  </si>
+  <si>
+    <t>QUÝ</t>
+  </si>
+  <si>
+    <t>THÀNH</t>
+  </si>
+  <si>
+    <t>PHÚ</t>
+  </si>
+  <si>
+    <t>THÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÔ THỊ THÙY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐINH THỊ THÙY </t>
+  </si>
+  <si>
+    <t>TẠ THANH</t>
+  </si>
+  <si>
+    <t>VÕ MINH</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN</t>
+  </si>
+  <si>
+    <t>NGUYỄN TẤN</t>
+  </si>
+  <si>
+    <t>LÊ KIM</t>
+  </si>
+  <si>
+    <t>PHẠM MINH</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>Nhân Viên Kế toán Phòng KÊ TOÁN</t>
+  </si>
+  <si>
+    <t>NV Kiểm Đếm Nhóm Hiện Trường Kho 6</t>
+  </si>
+  <si>
+    <t>NV Lái Xe Nâng Nhóm Hiện Trường Kho 6</t>
+  </si>
+  <si>
+    <t>CN Xếp Dỡ Nhóm Hiện Trường Kho 6</t>
+  </si>
+  <si>
+    <t>Nhân Viên Điều Độ BÃI DEPOT</t>
+  </si>
+  <si>
+    <t>TN  Nhóm Hiện Trường Kho 3</t>
+  </si>
+  <si>
+    <t>KÊ TOÁN</t>
+  </si>
+  <si>
+    <t>KHO 6</t>
+  </si>
+  <si>
+    <t>BÃI DEPOT</t>
+  </si>
+  <si>
+    <t>Hiện Trường</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>BỐ</t>
+  </si>
+  <si>
+    <t>PN</t>
   </si>
 </sst>
 </file>
@@ -380,26 +509,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:43">
       <c r="A2">
-        <v>0</v>
+        <v>622206051</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3">
+        <v>622212001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4">
+        <v>622205069</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5">
+        <v>622110024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6">
+        <v>622110105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7">
+        <v>622009021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8">
+        <v>621612002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9">
+        <v>621906001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
